--- a/train.xlsx
+++ b/train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12508\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F96FD8-36F0-49BB-88C2-A641771D449B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B15965E-1D70-4485-8FA0-579C0478E896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24311,8 +24311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A2980" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
